--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/SOUTH_DAKOTA_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/SOUTH_DAKOTA_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Candelaria</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Champoton</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Coronado</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Gomez Farias</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Torreon</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Coyuca De Catalan</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Zirandaro</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Huejucar</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Poncitlan</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>San Diego De Alejandria</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Teuchitlan</t>
@@ -1420,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Zacoalco De Torres</t>
@@ -1446,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1459,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -1472,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1485,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1568,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1612,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Churintzio</t>
@@ -1625,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Jose Sixto Verduzco</t>
@@ -1638,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1651,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -1664,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1677,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Purepero</t>
@@ -1690,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Puruandiro</t>
@@ -1703,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tumbiscatio</t>
@@ -1716,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1729,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1742,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1755,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -1768,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1799,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1812,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -1825,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1838,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1869,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1882,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1913,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1944,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Magdalena Jaltepec</t>
@@ -1957,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1970,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>San Agustin Loxicha</t>
@@ -1983,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -1996,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -2009,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>San Juan Quiotepec</t>
@@ -2022,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>San Lucas Ojitlan</t>
@@ -2035,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>San Pedro Jaltepetongo</t>
@@ -2048,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -2061,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -2074,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -2087,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Zapotitlan Lagunas</t>
@@ -2100,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2131,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlan</t>
@@ -2144,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Teotlalco</t>
@@ -2157,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Teziutlan</t>
@@ -2170,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tlaltenango</t>
@@ -2183,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Zacatlan</t>
@@ -2196,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2209,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2240,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -2253,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2284,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -2297,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Villa De Arista</t>
@@ -2310,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2341,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2372,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2403,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2416,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2447,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2478,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2491,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -2504,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -2517,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2530,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -2543,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -2556,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -2569,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2582,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2613,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Yucatan</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2644,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Valparaiso</t>
@@ -2657,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Total</t>
